--- a/outputs-HGR-r202/f__UBA11471.xlsx
+++ b/outputs-HGR-r202/f__UBA11471.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14711.fa</t>
+          <t>even_MAG-GUT10562.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -487,7 +487,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27968.fa</t>
+          <t>even_MAG-GUT11041.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33329.fa</t>
+          <t>even_MAG-GUT11308.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -533,7 +533,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45263.fa</t>
+          <t>even_MAG-GUT13150.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4969.fa</t>
+          <t>even_MAG-GUT14705.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -579,7 +579,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57158.fa</t>
+          <t>even_MAG-GUT14711.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -602,7 +602,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81409.fa</t>
+          <t>even_MAG-GUT1694.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -625,21 +625,872 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT19155.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT19423.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT22619.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT27968.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT2867.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT317.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT32588.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT32929.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT33329.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT35943.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT36571.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37401.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT379.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT39139.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43251.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43648.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT44774.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45263.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT45670.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47205.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT48276.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT4969.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57158.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59599.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68311.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7012.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT70913.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT722.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72929.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81123.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81409.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81936.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82089.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82177.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82472.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82505.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT84166.fa</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86112.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>

--- a/outputs-HGR-r202/f__UBA11471.xlsx
+++ b/outputs-HGR-r202/f__UBA11471.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1013,6 +1168,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1049,6 +1214,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1085,6 +1260,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1103,6 +1283,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1121,6 +1306,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1139,6 +1329,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1157,6 +1352,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1175,6 +1375,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1193,6 +1398,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1211,6 +1421,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1229,6 +1444,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1247,6 +1467,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1265,6 +1490,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1283,6 +1513,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1301,6 +1536,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1319,6 +1559,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1337,6 +1582,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1355,6 +1605,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1373,6 +1628,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1391,6 +1651,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1409,6 +1674,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1427,6 +1697,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1445,6 +1720,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1463,6 +1743,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1481,6 +1766,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1499,6 +1789,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1517,6 +1812,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1535,6 +1835,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1553,6 +1858,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1571,6 +1881,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1589,6 +1904,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1607,6 +1927,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1625,6 +1950,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1643,6 +1973,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1661,6 +1996,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1679,6 +2019,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1697,6 +2042,11 @@
           <t>g__UBA11471</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1711,6 +2061,11 @@
         <v>1</v>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>

--- a/outputs-HGR-r202/f__UBA11471.xlsx
+++ b/outputs-HGR-r202/f__UBA11471.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -464,21 +459,18 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10153.fa</t>
+          <t>even_MAG-GUT10562.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>835.4862032666973</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -487,21 +479,18 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10562.fa</t>
+          <t>even_MAG-GUT11041.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>1576.487598555261</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -510,21 +499,18 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11041.fa</t>
+          <t>even_MAG-GUT11308.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>1382.12478219945</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -533,21 +519,18 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11308.fa</t>
+          <t>even_MAG-GUT13150.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>693.4394425560434</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -556,21 +539,18 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11426.fa</t>
+          <t>even_MAG-GUT14705.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>414.1799375880843</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -579,21 +559,18 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12051.fa</t>
+          <t>even_MAG-GUT14711.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>1073.984582067711</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -602,21 +579,18 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13150.fa</t>
+          <t>even_MAG-GUT19155.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>1087.255072649041</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -625,21 +599,18 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13451.fa</t>
+          <t>even_MAG-GUT19423.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>1449.795236837297</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -648,21 +619,18 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14705.fa</t>
+          <t>even_MAG-GUT22619.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>1461.702801206236</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -671,21 +639,18 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14711.fa</t>
+          <t>even_MAG-GUT27968.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>1368.937293892183</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -694,21 +659,18 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1694.fa</t>
+          <t>even_MAG-GUT2867.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>560.8158830982619</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -717,21 +679,18 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19155.fa</t>
+          <t>even_MAG-GUT317.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>866.6577741671048</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -740,21 +699,18 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19423.fa</t>
+          <t>even_MAG-GUT32588.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>1091.034961154854</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -763,21 +719,18 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20126.fa</t>
+          <t>even_MAG-GUT32929.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>1241.356440666459</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -786,21 +739,18 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20461.fa</t>
+          <t>even_MAG-GUT33329.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>1094.922479294797</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -809,21 +759,18 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22619.fa</t>
+          <t>even_MAG-GUT35943.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>1434.031273378733</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -832,21 +779,18 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27968.fa</t>
+          <t>even_MAG-GUT36571.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
+        <v>1348.112983861665</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -855,21 +799,18 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2867.fa</t>
+          <t>even_MAG-GUT37401.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
+        <v>967.6420254224926</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -878,21 +819,18 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31002.fa</t>
+          <t>even_MAG-GUT379.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
+        <v>1104.968261679397</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -901,21 +839,18 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31540.fa</t>
+          <t>even_MAG-GUT39139.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
+        <v>1192.27995542018</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -924,21 +859,18 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT317.fa</t>
+          <t>even_MAG-GUT40221.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
+        <v>763.9071749940464</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -947,21 +879,18 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32588.fa</t>
+          <t>even_MAG-GUT43251.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
+        <v>630.8528497185893</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -970,21 +899,18 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32929.fa</t>
+          <t>even_MAG-GUT43648.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
+        <v>1002.242453033177</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -993,21 +919,18 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33329.fa</t>
+          <t>even_MAG-GUT44774.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
+        <v>1067.685961423338</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1016,21 +939,18 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35871.fa</t>
+          <t>even_MAG-GUT45263.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
+        <v>1057.032077994611</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1039,21 +959,18 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35943.fa</t>
+          <t>even_MAG-GUT45670.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
+        <v>1020.594374704802</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1062,21 +979,18 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36571.fa</t>
+          <t>even_MAG-GUT47205.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
+        <v>859.9275309595395</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1085,21 +999,18 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37401.fa</t>
+          <t>even_MAG-GUT48276.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
+        <v>1602.493889196115</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1108,21 +1019,18 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT379.fa</t>
+          <t>even_MAG-GUT4969.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
+        <v>2202.29890729689</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1131,21 +1039,18 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39139.fa</t>
+          <t>even_MAG-GUT57158.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
+        <v>1077.250654955509</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1154,21 +1059,18 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40221.fa</t>
+          <t>even_MAG-GUT59579.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
+        <v>778.9656181737436</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1177,21 +1079,18 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42780.fa</t>
+          <t>even_MAG-GUT59599.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
+        <v>1034.631265365167</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1200,21 +1099,18 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43251.fa</t>
+          <t>even_MAG-GUT65795.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
+        <v>763.9071749940464</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1223,21 +1119,18 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43648.fa</t>
+          <t>even_MAG-GUT66701.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
+        <v>1015.07656979785</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1246,21 +1139,18 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44774.fa</t>
+          <t>even_MAG-GUT68311.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
+        <v>955.4417967407686</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1269,21 +1159,18 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45263.fa</t>
+          <t>even_MAG-GUT7012.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
+        <v>774.7342670794516</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1292,21 +1179,18 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45396.fa</t>
+          <t>even_MAG-GUT70913.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
+        <v>545.1075526998105</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1315,21 +1199,18 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45670.fa</t>
+          <t>even_MAG-GUT722.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
+        <v>1290.274369709564</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1338,21 +1219,18 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46167.fa</t>
+          <t>even_MAG-GUT72929.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
+        <v>1061.824518521057</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1361,21 +1239,18 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46378.fa</t>
+          <t>even_MAG-GUT81123.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
+        <v>1183.682459971803</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1384,21 +1259,18 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47205.fa</t>
+          <t>even_MAG-GUT81409.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
+        <v>1477.992113243517</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1407,21 +1279,18 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48276.fa</t>
+          <t>even_MAG-GUT81936.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
+        <v>1050.841741156935</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1430,21 +1299,18 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4969.fa</t>
+          <t>even_MAG-GUT82089.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
+        <v>819.500875177553</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1453,21 +1319,18 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57158.fa</t>
+          <t>even_MAG-GUT82314.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
+        <v>732.1032555833227</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1476,21 +1339,18 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59579.fa</t>
+          <t>even_MAG-GUT82472.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
+        <v>1146.441193746957</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1499,21 +1359,18 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59599.fa</t>
+          <t>even_MAG-GUT82505.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
+        <v>1202.123147057136</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1522,21 +1379,18 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65795.fa</t>
+          <t>even_MAG-GUT84166.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
+        <v>717.1414571539179</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
@@ -1545,527 +1399,18 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66701.fa</t>
+          <t>even_MAG-GUT86112.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
+        <v>872.5807081403901</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>g__UBA11471</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68072.fa</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68311.fa</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7012.fa</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70913.fa</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT722.fa</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT72293.fa</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT72929.fa</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80330.fa</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81123.fa</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81409.fa</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81646.fa</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81936.fa</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82089.fa</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82177.fa</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82314.fa</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82472.fa</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82505.fa</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82571.fa</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT838.fa</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84166.fa</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84304.fa</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86112.fa</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>g__UBA11471</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
         <is>
           <t>g__UBA11471</t>
         </is>
